--- a/annales/2015/Annale2015.xlsx
+++ b/annales/2015/Annale2015.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26403"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D203F19-1865-41C9-889B-D0EB71CDD698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F99A16-6DA1-4560-A3F7-79951B303CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32505" yWindow="3705" windowWidth="21600" windowHeight="11775" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-3024" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consigne !" sheetId="1" r:id="rId1"/>
@@ -976,6 +976,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
@@ -990,12 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1043,12 +1043,12 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>102577</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>36635</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146537</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="[0]!Rectangle1_Cliquer" textlink="">
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
@@ -1062,7 +1062,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="65942" y="0"/>
-          <a:ext cx="11151577" cy="4227635"/>
+          <a:ext cx="7085135" cy="6154614"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1802,15 +1802,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>758669</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>144319</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4206241</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1825,8 +1825,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="571500"/>
-          <a:ext cx="12950669" cy="3192319"/>
+          <a:off x="1" y="91440"/>
+          <a:ext cx="7726680" cy="4442460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2383,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2625,9 +2625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2933,7 +2931,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3381,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3396,16 +3394,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="67" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
@@ -3737,27 +3735,27 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="69"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="71"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="69"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="69"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3766,35 +3764,35 @@
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
     </row>
     <row r="51" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B51:F51"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B51:F51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3804,9 +3802,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A21:B56"/>
+  <dimension ref="A28:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3814,72 +3812,42 @@
     <col min="2" max="2" width="62.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+    <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-    </row>
-    <row r="23" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="26"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="74" t="s">
+    <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+    </row>
+    <row r="30" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="26"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B31" s="74" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="74" t="s">
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="77"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="75"/>
-      <c r="B27" s="78"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="75"/>
-      <c r="B28" s="78"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="75"/>
-      <c r="B29" s="78"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="75"/>
-      <c r="B30" s="78"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
-      <c r="B31" s="78"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
-      <c r="B32" s="78"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
-      <c r="B33" s="78"/>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="76"/>
-      <c r="B34" s="79"/>
+      <c r="B33" s="77"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="75"/>
+      <c r="B34" s="78"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="77"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="78"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="75"/>
@@ -3901,13 +3869,15 @@
       <c r="A40" s="75"/>
       <c r="B40" s="78"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="75"/>
-      <c r="B41" s="78"/>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="76"/>
+      <c r="B41" s="79"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="75"/>
-      <c r="B42" s="78"/>
+      <c r="A42" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="77"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="75"/>
@@ -3917,15 +3887,13 @@
       <c r="A44" s="75"/>
       <c r="B44" s="78"/>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="76"/>
-      <c r="B45" s="79"/>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="75"/>
+      <c r="B45" s="78"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="77"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="78"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="75"/>
@@ -3947,13 +3915,15 @@
       <c r="A51" s="75"/>
       <c r="B51" s="78"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="75"/>
-      <c r="B52" s="78"/>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="76"/>
+      <c r="B52" s="79"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="75"/>
-      <c r="B53" s="78"/>
+      <c r="A53" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="77"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="75"/>
@@ -3963,20 +3933,48 @@
       <c r="A55" s="75"/>
       <c r="B55" s="78"/>
     </row>
-    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="76"/>
-      <c r="B56" s="79"/>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="75"/>
+      <c r="B56" s="78"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="75"/>
+      <c r="B57" s="78"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="75"/>
+      <c r="B58" s="78"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="75"/>
+      <c r="B59" s="78"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="75"/>
+      <c r="B60" s="78"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="75"/>
+      <c r="B61" s="78"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="75"/>
+      <c r="B62" s="78"/>
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="76"/>
+      <c r="B63" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="B46:B56"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="A53:A63"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="B33:B41"/>
+    <mergeCell ref="A42:A52"/>
+    <mergeCell ref="B42:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
